--- a/biology/Botanique/Bonne_de_Beugny/Bonne_de_Beugny.xlsx
+++ b/biology/Botanique/Bonne_de_Beugny/Bonne_de_Beugny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Bonne de Beugny est une variété de poire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bonne de Beugny est une variété de poire.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété vient d'un semis de hasard récolté par M. Chivert en 1875, à  Saint-Benoît-la-Forêt (Indre-et-Loire)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété vient d'un semis de hasard récolté par M. Chivert en 1875, à  Saint-Benoît-la-Forêt (Indre-et-Loire).
 </t>
         </is>
       </c>
@@ -568,12 +584,14 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux sont moyens, avec des yeux mi-saillants.
 L'arbre est assez vigoureux et très fertile.
 Cette variété convient à toutes les formes naines, palissées ou non, où elle produit abondamment.
-La poire reste cependant un fruit d'amateur[3].
+La poire reste cependant un fruit d'amateur.
 </t>
         </is>
       </c>
@@ -602,7 +620,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruit : moyen ou petit, forme de Doyenné bosselé, très irrégulier dans son pourtour.
 Épiderme. jaune bronzé, pointillé de gris du côté opposé à l'insolation.
@@ -639,9 +659,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poire est fondante, juteuse, douce et agréablement parfumée[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire est fondante, juteuse, douce et agréablement parfumée.
 </t>
         </is>
       </c>
